--- a/cypress/downloads/order-invoice_santhoshsai4517.xlsx
+++ b/cypress/downloads/order-invoice_santhoshsai4517.xlsx
@@ -424,13 +424,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>673ae394ae2afd4c0bc39e30</v>
+        <v>67417622ae2afd4c0bca6833</v>
       </c>
       <c r="B2" t="str">
-        <v>ADIDAS ORIGINAL</v>
+        <v>ZARA COAT 3</v>
       </c>
       <c r="C2" t="str">
-        <v>Adidas shoes for Men</v>
+        <v>Zara coat for Women and girls</v>
       </c>
       <c r="D2" t="str">
         <v>31500</v>
@@ -444,16 +444,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>673ae394ae2afd4c0bc39e33</v>
+        <v>67417622ae2afd4c0bca683a</v>
       </c>
       <c r="B3" t="str">
-        <v>ZARA COAT 3</v>
+        <v>IPHONE 13 PRO</v>
       </c>
       <c r="C3" t="str">
-        <v>Zara coat for Women and girls</v>
+        <v>Latest Apple Iphone13 pro with 200mp front camera</v>
       </c>
       <c r="D3" t="str">
-        <v>31500</v>
+        <v>231500</v>
       </c>
       <c r="E3" t="str">
         <v>India</v>
@@ -464,16 +464,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>673ae394ae2afd4c0bc39e36</v>
+        <v>67417622ae2afd4c0bca683e</v>
       </c>
       <c r="B4" t="str">
-        <v>IPHONE 13 PRO</v>
+        <v>qwerty</v>
       </c>
       <c r="C4" t="str">
-        <v>Latest Apple Iphone13 pro with 200mp front camera</v>
+        <v>Addias Originals</v>
       </c>
       <c r="D4" t="str">
-        <v>231500</v>
+        <v>11500</v>
       </c>
       <c r="E4" t="str">
         <v>India</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>673ae394ae2afd4c0bc39e3a</v>
+        <v>67417622ae2afd4c0bca6836</v>
       </c>
       <c r="B5" t="str">
-        <v>qwerty</v>
+        <v>ADIDAS ORIGINAL</v>
       </c>
       <c r="C5" t="str">
-        <v>Addias Originals</v>
+        <v>Adidas shoes for Men</v>
       </c>
       <c r="D5" t="str">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="E5" t="str">
         <v>India</v>
